--- a/publipostage/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
+++ b/publipostage/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00121121</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>A Phase Ib Vaccine Trial Evaluating the Safety and Immunogenicity of HIV Lipopeptides by Two Administration Routes (Intramuscular And Intradermal) in Healthy Adult Volunteers. ANRS VAC16 Trial</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -521,28 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00196586</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Pilot Study of Addition of IL-2 to Pegylated Interferon Alpha 2a and Ribavirin for the Treatment of Chronic Hepatitis C in HIV-HCV Coinfected Patients Non Responders to Three Months of Therapy With Pegylated Interferon Alpha 2a and Ribavirin. ANRS HC09 SECOIIA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -554,28 +569,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT00120185</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Study of the Immunological Efficacy of Using Subcutaneous Interleukin-2 (IL-2) in Antiretroviral Naïve HIV-1-Infected Subjects With a CD4 Cell Count Above 300/mm3. ANRS 119 Trial INTERSTART</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -587,28 +607,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT00121758</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT00117494</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Randomised Double Blinded Phase II AIDS Vaccine Study Comparing Immunogenicity and Safety of 3 Doses of Lipopeptide (LIPO-5) Versus Placebo in Non Infected HIV Volunteers (ANRS VAC 18)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Randomised Comparative Study of the Efficacy and Safety of Rosuvastatin and Pravastatin in Dyslipidemic Patients Treated With Antiretroviral Agents. Anrs 126</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -620,28 +645,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT00148863</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT00118677</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Pilot Study on Interferon Gamma in Association With Peg-Interferon Alpha 2a and Ribavirin Among Patients With a Chronic Hepatitis C and Non Responders to the Association of Peg-Interferon Alpha 2b or 2a and Ribavirin ANRS HC16 Gammatri</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Long-Term Supervised Treatment Interruption in HIV-Infected Patients Who Started Antiretroviral Treatment With CD4 Over 350/mm3 and Plasma HIV RNA Below 50 000/mL ANRS 116 Trial SALTO</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -653,28 +683,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT00122603</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT00121758</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Efficacy and Safety of Regimens Restricted to a Combination of Two Boosted Protease Inhibitors as Potent Antiretroviral Therapy in HIV-1 Infected Patients. ANRS 127 2IP</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Randomised Double Blinded Phase II AIDS Vaccine Study Comparing Immunogenicity and Safety of 3 Doses of Lipopeptide (LIPO-5) Versus Placebo in Non Infected HIV Volunteers (ANRS VAC 18)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -686,28 +721,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT00117494</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT00122603</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Randomised Comparative Study of the Efficacy and Safety of Rosuvastatin and Pravastatin in Dyslipidemic Patients Treated With Antiretroviral Agents. Anrs 126</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Efficacy and Safety of Regimens Restricted to a Combination of Two Boosted Protease Inhibitors as Potent Antiretroviral Therapy in HIV-1 Infected Patients. ANRS 127 2IP</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -719,28 +759,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT00118677</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT00148863</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Long-Term Supervised Treatment Interruption in HIV-Infected Patients Who Started Antiretroviral Treatment With CD4 Over 350/mm3 and Plasma HIV RNA Below 50 000/mL ANRS 116 Trial SALTO</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pilot Study on Interferon Gamma in Association With Peg-Interferon Alpha 2a and Ribavirin Among Patients With a Chronic Hepatitis C and Non Responders to the Association of Peg-Interferon Alpha 2b or 2a and Ribavirin ANRS HC16 Gammatri</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -752,28 +797,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>NCT00120367</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Early Intensification of Combination Antiretroviral Therapy Including FUZEON® in the Treatment of Progressive Multifocal Leucoencephalopathy During HIV-1 Infection ANRS 125 Trial</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -785,33 +835,34 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT00454337</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT00113282</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Randomized Non-inferiority Study Comparing a Strategy Maintaining Current Enfuvirtide-based Antiretroviral Therapy to a Strategy Replacing Enfuvirtide by an Integrase Inhibitor (Raltegravir) in HIV-1 Infected Subjects With Plasma Hiv-1 RNA Levels Below 400 Copies Per ml.ANRS 138 EASIER</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EASIER</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
+          <t>Study of the Immunological Efficacy of Adding Subcutaneous Interleukin-2 (IL-2) to an Optimized Antiretroviral Regimen in HIV-1-infected Subjects Experiencing Therapeutic Failure on an Ongoing Antiretroviral Combination With a CD4 Cell Count ≤ 200/mm3 ANRS 123 Trial</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -822,29 +873,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT00113282</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT00454337</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Study of the Immunological Efficacy of Adding Subcutaneous Interleukin-2 (IL-2) to an Optimized Antiretroviral Regimen in HIV-1-infected Subjects Experiencing Therapeutic Failure on an Ongoing Antiretroviral Combination With a CD4 Cell Count ≤ 200/mm3 ANRS 123 Trial</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="b">
-        <v>0</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Randomized Non-inferiority Study Comparing a Strategy Maintaining Current Enfuvirtide-based Antiretroviral Therapy to a Strategy Replacing Enfuvirtide by an Integrase Inhibitor (Raltegravir) in HIV-1 Infected Subjects With Plasma Hiv-1 RNA Levels Below 400 Copies Per ml.ANRS 138 EASIER</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>EASIER</t>
+        </is>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -855,28 +915,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT00120757</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT00528060</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Efficacy of Alendronate Versus Placebo in the Treatment of HIV-1 Associated Osteoporosis, a Multicenter, Randomized, Controlled Trial. ANRS 120 Fosivir</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="b">
-        <v>0</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pilot Study to Measure Exposure to Atazanavir, as a Component of Pharmacokinetic Parameters and Adherence Measured With MEMS in Naive HIV-infected Patients Treated Once Daily With Atazanavir Combined to Ritonavir and to Tenofovir/Emtricitabine. ANRS 134 Cophar 3</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ANRS134COPHAR3</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -886,34 +955,35 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2007-003203-12</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+          <t>NCT00120757</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Pharmacocinétique de l’atazanavir chez des patients infectés par le VIH, traités en première ligne par l’association atazanavir+ritonavir et emtricitabine+ténofovir en prise unique.</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>COPHAR-3</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
+          <t>Efficacy of Alendronate Versus Placebo in the Treatment of HIV-1 Associated Osteoporosis, a Multicenter, Randomized, Controlled Trial. ANRS 120 Fosivir</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -925,32 +995,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT00528060</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
+          <t>2007-003203-12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Pilot Study to Measure Exposure to Atazanavir, as a Component of Pharmacokinetic Parameters and Adherence Measured With MEMS in Naive HIV-infected Patients Treated Once Daily With Atazanavir Combined to Ritonavir and to Tenofovir/Emtricitabine. ANRS 134 Cophar 3</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ANRS134COPHAR3</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Pharmacocinétique de l’atazanavir chez des patients infectés par le VIH, traités en première ligne par l’association atazanavir+ritonavir et emtricitabine+ténofovir en prise unique.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>COPHAR-3</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -960,34 +1035,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>2007-000162-20</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Essai randomisé de non-infériorité comparant une stratégie de maintien du traitement antirétroviral en cours à une stratégie de substitution de l’enfuvirtide par un inhibiteur de l’intégrase (MK 0518) chez des sujets infectés par le VIH-1, ayant un ARN VIH-1 plasmatique inférieur à 400 copies/ml.</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>EASIER</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -999,28 +1079,33 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>NCT00122616</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Efficacy of Pegylated Interferon on Liver Fibrosis in Co-infected Patient With HIV and C Hepatitis Who Failed to Active Treatment for HCV. ANRSHC12 Fibrostop</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1032,28 +1117,33 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT00196664</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT00302822</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Assessment of the Efficacy of Paroxetine in the Prevention of Depressive Syndrome in Patients With Chronic Hepatitis C Treated by PEG-Interferon Alfa Plus Ribavirin. Multicentric, Double-Blinded, Randomized Study. ANRS HC18 Paropeg</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Enfuvirtide for the Initial Phase of Antiretroviral Therapy in HIV-infected Patients With High Risk of Clinical Progression : ANRS 130 APOLLO</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1063,35 +1153,40 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2007-000670-23</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+          <t>NCT00460382</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Essai pilote évaluant un traitement antirétroviral associant le MK-0518, le darunavir/ritonavir (TMC114/r) et l’etravirine (TMC125) chez les patients infectés par le VIH-1, en échec virologique et porteurs de virus multi-résistants.</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TRIO</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>Prospective Clinical Trial to Assess Safety and Efficacy of DRV/r(TMC 114/r), ETV(TMC 125) and MK-0518 in Addition to OBT in HIV-1 Infected Patients With Limited to No Treatment Options ANRS 139 TRIO</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>ANRS139 TRIO</t>
+        </is>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +1197,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT00115609</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT00490074</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Pilot Trial Evaluating Once Daily Triple Combination Antiretroviral Therapy With Tenofovir-Emtricitabine and Efavirenz in HIV-1 Infected Patients With Mycobacterium Tuberculosis Infection ANRS129 BKVIR</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="b">
-        <v>0</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A Phase I/II Trial to Compare the Immunogenicity and Safety of 3 DNA C Prime Followed by 1 NYVAC C Boost to 2 DNA C Prime Followed by 2 NYVAC C Boost</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>EV03/ANRSVAC20</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1135,33 +1239,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT00490074</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
+          <t>2007-000670-23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>A Phase I/II Trial to Compare the Immunogenicity and Safety of 3 DNA C Prime Followed by 1 NYVAC C Boost to 2 DNA C Prime Followed by 2 NYVAC C Boost</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>EV03/ANRSVAC20</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Essai pilote évaluant un traitement antirétroviral associant le MK-0518, le darunavir/ritonavir (TMC114/r) et l’etravirine (TMC125) chez les patients infectés par le VIH-1, en échec virologique et porteurs de virus multi-résistants.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>TRIO</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1172,28 +1281,33 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT00302822</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT00196664</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Enfuvirtide for the Initial Phase of Antiretroviral Therapy in HIV-infected Patients With High Risk of Clinical Progression : ANRS 130 APOLLO</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Assessment of the Efficacy of Paroxetine in the Prevention of Depressive Syndrome in Patients With Chronic Hepatitis C Treated by PEG-Interferon Alfa Plus Ribavirin. Multicentric, Double-Blinded, Randomized Study. ANRS HC18 Paropeg</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1205,32 +1319,33 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT00460382</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT00115609</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Prospective Clinical Trial to Assess Safety and Efficacy of DRV/r(TMC 114/r), ETV(TMC 125) and MK-0518 in Addition to OBT in HIV-1 Infected Patients With Limited to No Treatment Options ANRS 139 TRIO</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ANRS139 TRIO</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
+          <t>Pilot Trial Evaluating Once Daily Triple Combination Antiretroviral Therapy With Tenofovir-Emtricitabine and Efavirenz in HIV-1 Infected Patients With Mycobacterium Tuberculosis Infection ANRS129 BKVIR</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1242,33 +1357,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT01039220</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
+          <t>2009-016226-13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Incidence of H1N1v Influenza-like Illness and Risk Factors for Serious Influenza Forms in HIV Infected Patients</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ANRS 2H</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>Etude de phase II randomisée évaluant l'immunogénicité et la tolérance du vaccin antigrippal A(H1N1)v adjuvanté comparativement au vaccin antigrippal A(H1N1)v non adjuvanté chez des patients infectés par le VIH (ANRS 151 HIFLUVAC)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>HIFLUVAC</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1279,66 +1399,76 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT01008813</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT01038401</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>A Randomized Phase II Trial to Evaluate the Immunogenicity and Safety of an Adjuvanted A(H1N1)v Influenza Vaccine and a Non-adjuvanted A(H1N1)v Influenza Vaccine in HIV-infected Patients (ANRS 151 Hifluvac)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="b">
-        <v>0</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Characterization of the Residual Replication of HIV-1 in the Gut-associated Lymphoid Tissue in Patients Receiving Effective Highly Active Antiretroviral Therapy: the ANRS EP 44 Study</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>EP 44</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT01038401</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT00383734</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Characterization of the Residual Replication of HIV-1 in the Gut-associated Lymphoid Tissue in Patients Receiving Effective Highly Active Antiretroviral Therapy: the ANRS EP 44 Study</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EP 44</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
+          <t>Randomized, Comparative, Multicenter, Patient-blinded Trial of the Safety and Efficacy of Intradermal Injections of Polylactic Acid (Newfill TM) Versus Polyacrylamid Gel (Eutrophill) in the Treatment of Facial Lipoatrophy in HIV-infected Patients ANRS 132 SMILE</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1349,28 +1479,33 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>NCT00647205</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Evaluation of 2 Interferon γ Assays (QuantiFERON TB Gold In-Tube® and T-SPOT.TB®) in the Diagnosis of Latent Tuberculosis in HIV-infected Patients.ANRS EP 40 QUANTI SPOT</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1382,36 +1517,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT00574652</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2006-004039-31</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+          <t>NCT00536627</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ANRS HC 21 VASCU IL-2, Evaluation of the Cellular Immune Response, Clinical Efficacy and Tolerance After IL-2 Therapy in HCV-related Vasculitis Patients, Resistant to Conventional Therapy.</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>VASCU-IL2</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+          <t>Randomised, Opened, Multicentre Phase I/II Trial in Patients With Chronic Hepatitis B With HBV VL &lt; 12 IU/ml and Under Treatment With NRTI, Which Evaluated Efficacy and Tolerance of Vaccination With Naked DNA on Viral Replication After Analogs' Treatment Interruption. ANRS HB02 VAC-ADN</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>VAC-ADN</t>
+        </is>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1421,35 +1557,40 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2009-016226-13</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+          <t>NCT01039220</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Etude de phase II randomisée évaluant l'immunogénicité et la tolérance du vaccin antigrippal A(H1N1)v adjuvanté comparativement au vaccin antigrippal A(H1N1)v non adjuvanté chez des patients infectés par le VIH (ANRS 151 HIFLUVAC)</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HIFLUVAC</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Incidence of H1N1v Influenza-like Illness and Risk Factors for Serious Influenza Forms in HIV Infected Patients</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ANRS 2H</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1460,139 +1601,159 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT00536627</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT01008813</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Randomised, Opened, Multicentre Phase I/II Trial in Patients With Chronic Hepatitis B With HBV VL &lt; 12 IU/ml and Under Treatment With NRTI, Which Evaluated Efficacy and Tolerance of Vaccination With Naked DNA on Viral Replication After Analogs' Treatment Interruption. ANRS HB02 VAC-ADN</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>VAC-ADN</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
+          <t>A Randomized Phase II Trial to Evaluate the Immunogenicity and Safety of an Adjuvanted A(H1N1)v Influenza Vaccine and a Non-adjuvanted A(H1N1)v Influenza Vaccine in HIV-infected Patients (ANRS 151 Hifluvac)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT00383734</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT00574652</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>2006-004039-31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Randomized, Comparative, Multicenter, Patient-blinded Trial of the Safety and Efficacy of Intradermal Injections of Polylactic Acid (Newfill TM) Versus Polyacrylamid Gel (Eutrophill) in the Treatment of Facial Lipoatrophy in HIV-infected Patients ANRS 132 SMILE</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="b">
-        <v>0</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ANRS HC 21 VASCU IL-2, Evaluation of the Cellular Immune Response, Clinical Efficacy and Tolerance After IL-2 Therapy in HCV-related Vasculitis Patients, Resistant to Conventional Therapy.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>VASCU-IL2</t>
+        </is>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT00657397</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT01164462</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Initialization of Methadone in Primary Care; a Randomized Intervention Research for Preventing HCV Transmission Practices. ANRS Methaville</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Methaville</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>DRAG</t>
+        </is>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>🟧</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2009-011171-76</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+          <t>NCT00657397</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Etude pilote évaluant l’intérêt d’une intensification par maraviroc (Celsentri®) chez des patients infectés par le VIH-1 présentant une restauration immunitaire insuffisante malgré une charge virale contrôlée par un traitement anti-rétroviral.</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MARIMUNO</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+          <t>Initialization of Methadone in Primary Care; a Randomized Intervention Research for Preventing HCV Transmission Practices. ANRS Methaville</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Methaville</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1604,32 +1765,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>NCT00944541</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Pilot Study Evaluating Maraviroc (Celsentri®)Intensification Benefit in HIV Infected Patients Presenting Insufficient Immune Restoration Despite Controlled Viral Load With Antiretroviral Treatment. ANRS 145 MARIMUNO</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>145 MARIMUNO</t>
         </is>
       </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1639,34 +1805,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2006-005962-38</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
+          <t>2009-011171-76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Essai randomisé de non-infériorité comparant la capacité à maintenir le succès virologique d’une stratégie de traitement simplifié par une monothérapie d’inhibiteur de protéase boosté, le darunavir/r (TMC114/r), par rapport au maintien d’une trithérapie comportant 2 inhibiteurs nucléosidiques de la transcriptase inverse (INTI) associés au darunavir/r (TMC114/r) chez des patients infectés par le VIH-1 en succès immunovirologique.</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MONOI</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+          <t>Etude pilote évaluant l’intérêt d’une intensification par maraviroc (Celsentri®) chez des patients infectés par le VIH-1 présentant une restauration immunitaire insuffisante malgré une charge virale contrôlée par un traitement anti-rétroviral.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>MARIMUNO</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1678,28 +1849,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT00421551</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
+          <t>2006-005962-38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>A Randomized Multicenter Study With Non-inferiority Hypothesis, Comparing the Availability to Maintain a Complete Viral Suppression by a Monotherapy of Darunavir/r to a NRTI Containing Regimen Including Darunavir/r, in HIV-1 Infected Patients With Previous Prolonged Complete Viral Suppression. ANRS 136 MONOI</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="b">
-        <v>0</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Essai randomisé de non-infériorité comparant la capacité à maintenir le succès virologique d’une stratégie de traitement simplifié par une monothérapie d’inhibiteur de protéase boosté, le darunavir/r (TMC114/r), par rapport au maintien d’une trithérapie comportant 2 inhibiteurs nucléosidiques de la transcriptase inverse (INTI) associés au darunavir/r (TMC114/r) chez des patients infectés par le VIH-1 en succès immunovirologique.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>MONOI</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1711,29 +1891,34 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT01164462</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT00421551</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DRAG</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
+          <t>A Randomized Multicenter Study With Non-inferiority Hypothesis, Comparing the Availability to Maintain a Complete Viral Suppression by a Monotherapy of Darunavir/r to a NRTI Containing Regimen Including Darunavir/r, in HIV-1 Infected Patients With Previous Prolonged Complete Viral Suppression. ANRS 136 MONOI</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1744,28 +1929,33 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>NCT00424814</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Prevention of HIV1 Mother to Child Transmission Without Nucleoside Analogue Reverse Transcriptase Inhibitors in the Pre-partum Phase. A Multicenter Randomised Phase II/III Open Label Study With a Group of 100 Pregnant Women Receiving Lopinavir/Ritonavir and a Group of 50 Receiving Lopinavir/Ritonavir Plus Zidovudine and Lamivudine. ANRS 135 Primeva</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="b">
         <v>1</v>
       </c>
       <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1777,106 +1967,117 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT00391638</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT00820118</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Pilot Study on Efficacy and Tolerance of Peg-interferon Alpha-2a (Pegasys) Added to Tenofovir DF and Emtricitabine (Truvada) in AGHBe Positive HBV-HIV Co-infected Patients. ANRS HB 01 EMVIPEG.</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>HB01EMVIPEG</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>ARNS 141 TIPI : A Pilot Trial to Assess the Ability of an Intermittent Antiretroviral Therapy in Maintaining an Immunological Stability in Antiretroviral naïve HIV Infected Adults, With CD4 Count Above 500/mm3</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>TIPI</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT01065207</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT00822315</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>ANRS HIV CONTROLLERS NATIONAL OBSERVATORY</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ANRS CO18</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
+          <t>Phase II Open-label Randomized Multicenter Trial to Compare the Efficacy and Safety of Two Different Doses of Raltegravir and Efavirenz, All in Combination With Tenofovir and Lamivudine, in Naive HIV-1-infected Patients Receiving Rifampin for Active Tuberculosis</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT00480792</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT00901524</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Open-label, Randomized, and Multicentric Phase III Clinical Trial Comparing Three Strategies of Vaccination Against the Virus of Hepatitis B in HIV-1-infected Patients With CD4-positive T-lymphocytes Counts Above 200 permm3 ANRS HB 03 VIHVAC-B</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>VIHVAC-B</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>ANRS HC20 Pilot Study, Multicenter, Assessing the Effectiveness of an Optimized Anti HCV (360μg/Week Induction of PegIFN-alpha2a + 18mg/kg/j of RBV for 6 Months and Then Depending on the Virological Response to S12, Elongation up S72 to the Dual Anti HCV, With Accompanying Measures) on Sustained Virological Response in Patients With HCV Genotype 1 and 4 Non Responders and Co-infected With HIV.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ETOC</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1888,33 +2089,38 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT01413152</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT00480792</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>EVALUATION DU RISQUE RESIDUEL DE TRANSMISSION DU VIH CHEZ DES HSH TRAITES AYANT UNE CHARGE VIRALE PLASMATIQUE INDETECTABLE</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>EP 49 EVARIST</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+          <t>Open-label, Randomized, and Multicentric Phase III Clinical Trial Comparing Three Strategies of Vaccination Against the Virus of Hepatitis B in HIV-1-infected Patients With CD4-positive T-lymphocytes Counts Above 200 permm3 ANRS HB 03 VIHVAC-B</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>VIHVAC-B</t>
+        </is>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1923,68 +2129,82 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>2008-000859-10</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Etude pilote, multicentrique, évaluant l’efficacité d’un traitement anti VHC optimisé (induction par 360µg/S de PegIFN-alpha 2a + 18mg/kg/j de RBV pendant 6 mois puis en fonction de la réponse virologique à S12, allongement jusqu'à S72 de la bithérapie anti VHC, avec mesures d'accompagnement) sur la réponse virologique soutenue chez des patients VHC de génotype 1 et 4, non répondeurs et co-infectés par le VIH.</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>ETOC</t>
         </is>
       </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT00822315</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT00391638</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Phase II Open-label Randomized Multicenter Trial to Compare the Efficacy and Safety of Two Different Doses of Raltegravir and Efavirenz, All in Combination With Tenofovir and Lamivudine, in Naive HIV-1-infected Patients Receiving Rifampin for Active Tuberculosis</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="b">
-        <v>0</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Pilot Study on Efficacy and Tolerance of Peg-interferon Alpha-2a (Pegasys) Added to Tenofovir DF and Emtricitabine (Truvada) in AGHBe Positive HBV-HIV Co-infected Patients. ANRS HB 01 EMVIPEG.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>HB01EMVIPEG</t>
+        </is>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1995,177 +2215,202 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT00820118</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT01413152</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ARNS 141 TIPI : A Pilot Trial to Assess the Ability of an Intermittent Antiretroviral Therapy in Maintaining an Immunological Stability in Antiretroviral naïve HIV Infected Adults, With CD4 Count Above 500/mm3</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>TIPI</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>EVALUATION DU RISQUE RESIDUEL DE TRANSMISSION DU VIH CHEZ DES HSH TRAITES AYANT UNE CHARGE VIRALE PLASMATIQUE INDETECTABLE</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>EP 49 EVARIST</t>
+        </is>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT00901524</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT01065207</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ANRS HC20 Pilot Study, Multicenter, Assessing the Effectiveness of an Optimized Anti HCV (360μg/Week Induction of PegIFN-alpha2a + 18mg/kg/j of RBV for 6 Months and Then Depending on the Virological Response to S12, Elongation up S72 to the Dual Anti HCV, With Accompanying Measures) on Sustained Virological Response in Patients With HCV Genotype 1 and 4 Non Responders and Co-infected With HIV.</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ETOC</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>ANRS HIV CONTROLLERS NATIONAL OBSERVATORY</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ANRS CO18</t>
+        </is>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT00323804</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT01226446</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Randomized, Double-blind, Placebo-controlled Multicenter Study Evaluating the Interest of a Long-term (3 Years) Treatment With Peginterferon Alfa-2b and Ribavirin on Liver Fibrosis in Non-responder Chronic Hepatitis C Patients.</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="b">
-        <v>0</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Multicenter Open and Prospective Trial Assessing the Efficacy of Vitamin D Supplementation in Addition to Pegylated Interferon Plus Ribavirin in Null-Responders Patients With Chronic Viral Hepatitis C Genotype 1 or 4</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ANRS VITAVIC</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCT01332955</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT00265642</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Pilot Study of PegInterferon-Ribavirin-Telaprevir Efficacy and Tolerability in HIV-HCV Coinfected Patients Who Had Previously Failed a PegInterferon-Ribavirin Regimen. (ANRS HC26 TelapreVIH)</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TelapreVIH</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
+          <t>Study of the Effects of a Sartan on Hepatic Fibrosis Progression in Chronic Viral Hepatitis C</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Fibrosar</t>
+        </is>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT00265642</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT01033760</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Study of the Effects of a Sartan on Hepatic Fibrosis Progression in Chronic Viral Hepatitis C</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Fibrosar</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
+          <t>Optimisation of Primary HIV1 Infection Treatment (ANRS 147 OPTIPRIM)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2176,32 +2421,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT00670839</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT01066962</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Open-label, Randomized, and Multicenter Phase III Clinical Trial Comparing Immunogenicity of Double-dose (40 µg at S0, S4 and S24), Versus Standard Dose Vaccination (20 µg at S0, S4 and S24), Against Hepatitis B Virus in HIV-1-infected Patients Without Any Previous Immune Response After Primary Immunization Plus One Single Boost</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>B-BOOST</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
+          <t>An Open-label Randomised Two-year Trial Comparing Two First-line Regimens in HIV-infected Antiretroviral naïve Subjects: Darunavir/r + Tenofovir/Emtricitabine vs. Darunavir/r + Raltegravir (ANRS 143/NEAT 001)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ANRS 143</t>
+        </is>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2213,139 +2463,163 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT00116454</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT01022476</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>A Randomized and Multicenter Trial for Hepatocellular Carcinoma Adjuvant Treatment by Lipiocis</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lipiocis</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
+          <t>A Pilot Study of Pharmacokinetics, Tolerance and Efficacy of Raltegravir Combined to Two Fully Active Molecules Among Nucleosi(ti)de Analogs and Enfuvirtide Before and After Liver Transplant in HIV Infected Patients With End Stage Liver Disease (ANRS 148 LIVERAL)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>LIVERAL</t>
+        </is>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT01226446</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT01332955</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Multicenter Open and Prospective Trial Assessing the Efficacy of Vitamin D Supplementation in Addition to Pegylated Interferon Plus Ribavirin in Null-Responders Patients With Chronic Viral Hepatitis C Genotype 1 or 4</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ANRS VITAVIC</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>Pilot Study of PegInterferon-Ribavirin-Telaprevir Efficacy and Tolerability in HIV-HCV Coinfected Patients Who Had Previously Failed a PegInterferon-Ribavirin Regimen. (ANRS HC26 TelapreVIH)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>TelapreVIH</t>
+        </is>
       </c>
       <c r="H52" t="b">
         <v>1</v>
       </c>
       <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT01033760</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
+          <t>2009-015121-37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Optimisation of Primary HIV1 Infection Treatment (ANRS 147 OPTIPRIM)</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="b">
-        <v>0</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Etude multicentrique randomisée ouverte comparant la réduction virale et la tolérance de l’association IFN alpha-2b XL + ribavirine versus IFN peg alpha-2b + ribavirine chez des patients atteints d’hépatite chronique C de génotype 1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>COAT-IFN</t>
+        </is>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>🟧</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2009-014616-36</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
+          <t>NCT00670839</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Etude pilote de la pharmacocinétique, de la tolérance et de l’efficacité du raltégravir associé à deux molécules actives parmi les analogues nucléosi(ti)diques et l’enfuvirtide, avant et après transplantation hépatique chez des patients VIH+ en insuffisance hépatique sévère.</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>LIVERAL</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Open-label, Randomized, and Multicenter Phase III Clinical Trial Comparing Immunogenicity of Double-dose (40 µg at S0, S4 and S24), Versus Standard Dose Vaccination (20 µg at S0, S4 and S24), Against Hepatitis B Virus in HIV-1-infected Patients Without Any Previous Immune Response After Primary Immunization Plus One Single Boost</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>B-BOOST</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2355,35 +2629,36 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2009-015121-37</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
+          <t>NCT00323804</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Etude multicentrique randomisée ouverte comparant la réduction virale et la tolérance de l’association IFN alpha-2b XL + ribavirine versus IFN peg alpha-2b + ribavirine chez des patients atteints d’hépatite chronique C de génotype 1</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>COAT-IFN</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
+          <t>Randomized, Double-blind, Placebo-controlled Multicenter Study Evaluating the Interest of a Long-term (3 Years) Treatment With Peginterferon Alfa-2b and Ribavirin on Liver Fibrosis in Non-responder Chronic Hepatitis C Patients.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2394,69 +2669,79 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT01022476</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT00116454</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>A Pilot Study of Pharmacokinetics, Tolerance and Efficacy of Raltegravir Combined to Two Fully Active Molecules Among Nucleosi(ti)de Analogs and Enfuvirtide Before and After Liver Transplant in HIV Infected Patients With End Stage Liver Disease (ANRS 148 LIVERAL)</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>LIVERAL</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
+          <t>A Randomized and Multicenter Trial for Hepatocellular Carcinoma Adjuvant Treatment by Lipiocis</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Lipiocis</t>
+        </is>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT01066962</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
+          <t>2009-014616-36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>An Open-label Randomised Two-year Trial Comparing Two First-line Regimens in HIV-infected Antiretroviral naïve Subjects: Darunavir/r + Tenofovir/Emtricitabine vs. Darunavir/r + Raltegravir (ANRS 143/NEAT 001)</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ANRS 143</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Etude pilote de la pharmacocinétique, de la tolérance et de l’efficacité du raltégravir associé à deux molécules actives parmi les analogues nucléosi(ti)diques et l’enfuvirtide, avant et après transplantation hépatique chez des patients VIH+ en insuffisance hépatique sévère.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>LIVERAL</t>
+        </is>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2466,105 +2751,120 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>2009-015113-44</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>An open-label randomised two-year trial comparing two first-line regimens in HIV-infected antiretroviral naïve subjects:  darunavir/r + tenofovir/emtricitabine vs. darunavir/r + raltegravir</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT01335529</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT01725542</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Pilot Study to Assess the Efficacy and Safety of Boceprevir, in Combination With Peg-Interferon Alfa and Ribavirin, in Patients With HCV/HIV Co-infection Who Have Failed to a Previous Therapy With Peg-Interferon/Ribavirin</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>BocepreVIH</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>Pilot Study to Assess the Efficacy and Tolerance to a QUadruple Therapy With Asunaprevir , Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a, in HIV-HCV Genotype 1 or 4 Coinfected Patients Previously Null Responders to a Standard Pegylated Interferon -Ribavirin Regimen</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>QUADRIH</t>
+        </is>
       </c>
       <c r="H59" t="b">
         <v>1</v>
       </c>
       <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT01207986</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT01335529</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Early Lung Cancer Diagnosis in HIV Infected Population With an Important Smoking History With Low Dose CT: a Pilot Study</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>EP48 HIV CHEST</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Pilot Study to Assess the Efficacy and Safety of Boceprevir, in Combination With Peg-Interferon Alfa and Ribavirin, in Patients With HCV/HIV Co-infection Who Have Failed to a Previous Therapy With Peg-Interferon/Ribavirin</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>BocepreVIH</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2575,32 +2875,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>NCT00918307</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Comparison of the Efficacy and Safety of Varenicline Versus Placebo for Smoking Cessation Among HIV-infected Patients. A Randomized Double Blind Controlled Trial</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Inter-ACTIV</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2612,107 +2917,122 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>NCT00946595</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>A Study Comparing Efficacy and Tolerance of Two Maintenance Strategies : a Monotherapy With Lopinavir/Ritonavir or a Single-tablet Triple Therapy by Efavirenz/Emtricitabin/Tenofovir in HIV-1 Infected Patients With HIV RNA Below 50 cp/mL</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>ANRS 140 DREAM</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT01725542</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT01207986</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Pilot Study to Assess the Efficacy and Tolerance to a QUadruple Therapy With Asunaprevir , Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a, in HIV-HCV Genotype 1 or 4 Coinfected Patients Previously Null Responders to a Standard Pegylated Interferon -Ribavirin Regimen</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>QUADRIH</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
+          <t>Early Lung Cancer Diagnosis in HIV Infected Population With an Important Smoking History With Low Dose CT: a Pilot Study</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>EP48 HIV CHEST</t>
+        </is>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT01605890</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT01453192</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>ANRS 159 VIH-2 : Trial Evaluating a First Line Combination Therapy With Raltegravir, Emtricitabine and Tenofovir in HIV-2 Infected Patients</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>VIH-2</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>National, Multicenter, Phase III Prospective Trial About Clinical and Immunological Follow-up After Renal Transplantation in HIV-1 Infected Patients With End Stage Chronic Renal Insufficiency</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ANRS153TREVE</t>
+        </is>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2723,32 +3043,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>NCT02125500</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>2013-002607-33</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Pilot Study to Assess Efficacy and Safety of Sofosbuvir/Ledipasvir (GS-5885) Fixed-dose Combination in NS3/4A Protease Inhibitor-experienced Subjects With HCV Genotype 1 Infection and HIV Co-infection</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2760,28 +3085,33 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT01463956</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT02107365</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Pilot Study on the Efficacy of Pegylated Interferon-Ribavirin-Boceprevir Triple Therapy in Patients Infected With Genotype 1 HCV With Cirrhosis and Awaiting Liver Transplantation (ANRS HC 29 BOCEPRETRANSPLANT)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Pilot Study to Assess Efficacy and Safety of a Quadruple Therapy With Asunaprevir, Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a in HCV Genotype 4-infected Patients Non-responders to Pegylated Interferon-Ribavirin Regimen</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2793,70 +3123,76 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT01453192</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT01463956</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>National, Multicenter, Phase III Prospective Trial About Clinical and Immunological Follow-up After Renal Transplantation in HIV-1 Infected Patients With End Stage Chronic Renal Insufficiency</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ANRS153TREVE</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
+          <t>Pilot Study on the Efficacy of Pegylated Interferon-Ribavirin-Boceprevir Triple Therapy in Patients Infected With Genotype 1 HCV With Cirrhosis and Awaiting Liver Transplantation (ANRS HC 29 BOCEPRETRANSPLANT)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT01952587</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT01605890</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Frequency and Functional Impact of the c.32A&gt;T Genetic Polymorphism of TLR7 in Women Infected With HIV-1 : the ANRS EP53 Study</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>X LIBRIS</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
+          <t>ANRS 159 VIH-2 : Trial Evaluating a First Line Combination Therapy With Raltegravir, Emtricitabine and Tenofovir in HIV-2 Infected Patients</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>VIH-2</t>
+        </is>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2867,213 +3203,247 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT02107365</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NCT01952587</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Pilot Study to Assess Efficacy and Safety of a Quadruple Therapy With Asunaprevir, Daclatasvir, Ribavirin and Pegylated Interferon Alpha-2a in HCV Genotype 4-infected Patients Non-responders to Pegylated Interferon-Ribavirin Regimen</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="b">
-        <v>0</v>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Frequency and Functional Impact of the c.32A&gt;T Genetic Polymorphism of TLR7 in Women Infected With HIV-1 : the ANRS EP53 Study</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>X LIBRIS</t>
+        </is>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT01473472</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT01348308</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>On Demand Antiretroviral Pre-exposure Prophylaxis for HIV Infection in Men Who Have Sex With Men</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>IPERGAY</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
+          <t>Optimized Phase III Trial of Immuno-stimulation With Maraviroc, a CCR5 (Chemokine Receptor 5) Antagonist, Combined With Anti Retroviral Therapy in Advanced, Late Diagnosed HIV-1 Infected Patients With an AIDS-defining Event and/or CD4 (Cluster of Differentiation 4) Counts Below 200 Cells/mm³. ANRS 146 OPTIMAL</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>OPTIMAL</t>
+        </is>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT01348308</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT02384967</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Optimized Phase III Trial of Immuno-stimulation With Maraviroc, a CCR5 (Chemokine Receptor 5) Antagonist, Combined With Anti Retroviral Therapy in Advanced, Late Diagnosed HIV-1 Infected Patients With an AIDS-defining Event and/or CD4 (Cluster of Differentiation 4) Counts Below 200 Cells/mm³. ANRS 146 OPTIMAL</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>OPTIMAL</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>Phase II Trial Assessing the Efficacy of a Reduced Dose Strategy of Darunavir to 400 mg/d in HIV-1 Infected Patients Virologically Suppressed Under a Once Daily Regimen Including Darunavir 800 mg/d and Two Nucleoside Reverse Transcriptase Inhibitors (NRTI), to Maintain the Viral Load Lower Than 50 Copies / mL at 48 Weeks of Treatment</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>DARULIGHT</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT02038842</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT02157311</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Phase I/II Open-label Randomized Multicenter Trial to Assess Immunogenicity and Safety of 4 Prime-boost Combinations of HIV Vaccine Candidates (MVA HIV-B/ LIPO-5; LIPO-5/MVA HIV-B; GTU®-MultiHIV B / LIPO-5; GTU®-MultiHIV B/MVA HIV-B) in Healthy Volunteers at Low Risk of HIV Infection</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>VRI01</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Evaluation of the Capacity of a Weekly Strategy of 4 Consecutive Days on Treatment Followed by 3 Days Off Treatment, in HIV-1 Infected Patients With Undetectable Viral Load for at Least 12 Months, to Maintain a Virological Success With This Intermittent Maintenance Therapy After a Successful Continuous Induction Therapy.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>ANRS162-4D</t>
+        </is>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT02157311</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT02093754</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Evaluation of the Capacity of a Weekly Strategy of 4 Consecutive Days on Treatment Followed by 3 Days Off Treatment, in HIV-1 Infected Patients With Undetectable Viral Load for at Least 12 Months, to Maintain a Virological Success With This Intermittent Maintenance Therapy After a Successful Continuous Induction Therapy.</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ANRS162-4D</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Assessing the Severity of Metabolic-related Liver Injuries in Aging HIV-monoinfected Patients: a European Multicentre Study</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>ANRS ECHAM</t>
+        </is>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT02384967</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT01473472</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Phase II Trial Assessing the Efficacy of a Reduced Dose Strategy of Darunavir to 400 mg/d in HIV-1 Infected Patients Virologically Suppressed Under a Once Daily Regimen Including Darunavir 800 mg/d and Two Nucleoside Reverse Transcriptase Inhibitors (NRTI), to Maintain the Viral Load Lower Than 50 Copies / mL at 48 Weeks of Treatment</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>DARULIGHT</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
+          <t>On Demand Antiretroviral Pre-exposure Prophylaxis for HIV Infection in Men Who Have Sex With Men</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>IPERGAY</t>
+        </is>
       </c>
       <c r="H74" t="b">
         <v>1</v>
       </c>
       <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3085,32 +3455,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>NCT01899196</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>EPICARDIAL ADIPOSE TISSUE AND CORONARY RISK IN HIV-INFECTED PATIENTS</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>ANRS EP 52</t>
         </is>
       </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3122,70 +3497,76 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT02093754</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT02038842</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Assessing the Severity of Metabolic-related Liver Injuries in Aging HIV-monoinfected Patients: a European Multicentre Study</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ANRS ECHAM</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
+          <t>Phase I/II Open-label Randomized Multicenter Trial to Assess Immunogenicity and Safety of 4 Prime-boost Combinations of HIV Vaccine Candidates (MVA HIV-B/ LIPO-5; LIPO-5/MVA HIV-B; GTU®-MultiHIV B / LIPO-5; GTU®-MultiHIV B/MVA HIV-B) in Healthy Volunteers at Low Risk of HIV Infection</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>VRI01</t>
+        </is>
       </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT01426243</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT02527096</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>The Yellow Fever Vaccine Immunity in HIV Infected Patients : Development of New Assays for Virological and Immunological Monitoring in HIV Infected Patient</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>EP46 NOVAA</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
+          <t>A Pilot Trial Evaluating Maintenance Therapy With Lamivudine(Epivir®) and Dolutegravir(Tivicay®) in Human Immunodeficiency Virus 1 (HIV-1) Infected Patients Virologically Suppressed With Triple HAART - ANRS 167 Lamidol</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3196,29 +3577,42 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT02527096</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT02099474</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>2013-004571-12</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>A Pilot Trial Evaluating Maintenance Therapy With Lamivudine(Epivir®) and Dolutegravir(Tivicay®) in Human Immunodeficiency Virus 1 (HIV-1) Infected Patients Virologically Suppressed With Triple HAART - ANRS 167 Lamidol</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="b">
-        <v>0</v>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Evaluation of the Pharmacokinetic Properties and the Tolerance of Raltegravir During the Third Trimester of Pregnancy</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>ANRS 160 RalFE</t>
+        </is>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3229,217 +3623,243 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>NCT01492985</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Evaluation of a Therapeutic Immunization Strategy Associating a DNA Vaccine (GTU-MultiHIV B) Followed by a Lipopeptide Vaccine (LIPO-5) in the Control of Viral Replication Following Antiretroviral Treatment Interruption in HIV-1 Infected Patients With a CD4 Cell Count ≥ 600/mm3</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT02099474</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2013-004571-12</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
+          <t>NCT02592174</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Evaluation of the Pharmacokinetic Properties and the Tolerance of Raltegravir During the Third Trimester of Pregnancy</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ANRS 160 RalFE</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Prevalence, Characteristics and Risk Factors of HIV-Associated Neurocognitive Disorders in Subjects Between the Ages of 55 and 70 Years: An Exposed/Unexposed Cross Sectional Study</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>HAND55-70</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT02592174</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT01426243</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Prevalence, Characteristics and Risk Factors of HIV-Associated Neurocognitive Disorders in Subjects Between the Ages of 55 and 70 Years: An Exposed/Unexposed Cross Sectional Study</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>HAND55-70</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>The Yellow Fever Vaccine Immunity in HIV Infected Patients : Development of New Assays for Virological and Immunological Monitoring in HIV Infected Patient</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>EP46 NOVAA</t>
+        </is>
       </c>
       <c r="H81" t="b">
         <v>1</v>
       </c>
       <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT02212379</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
+          <t>2013-002996-16</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Dual Therapy Combining Raltegravir With Etravirine Maintains a High Level of Viral Suppression Over 96 Weeks in Long-term Experienced HIV-infected Individuals Over 45 Years on a PI-based Regimen: Results From the Phase II ANRS 163 ETRAL Study</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>🟧</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>NCT02273765</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Phase III Open-label Randomized Multicenter Trial to Assess the Non-inferiority of Raltegravir Compared With EFavirenz, Both in Combination With LAmivudine and TEnofovir, in ART-naïve HIV-1-infected Patients Receiving Rifampin for Active TuBerculosis</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>REFLATE TB2</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2013-002996-16</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>ANRS SHS155 STIMAGO: Pilote study to evaluate the benefits and the risks of methylphenidate for the treatment of cocain dependence.  
  ANRS SHS155 STIMAGO : Etude pilote pour l’évaluation des bénéfices et des risques du méthylphénidate pour la prise en charge de la dépendance à la cocaïne.</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>ANRS SHS155 STIMAGO 
  ANRS SHS155 STIMAGO</t>
         </is>
       </c>
-      <c r="G84" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT01942655</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ANRS RF002 Intestipax : Interleukin-23 (IL-23)/Interleukin-12 (IL-12) Imbalance and T Lymphocyte Polarization in HIV Infection</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>INTESTIPAX</t>
+        </is>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT01895920</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>TRANSBioHIV</t>
+        </is>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3450,103 +3870,118 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>NCT01269632</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Long Term Evaluation of Young Adults Born to HIV-infected Mothers. A Cohort of Young Adults Infected With HIV Since Birth or During Childhood</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>CO19 COVERTE</t>
         </is>
       </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NCT01942655</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NCT02273765</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>ANRS RF002 Intestipax : Interleukin-23 (IL-23)/Interleukin-12 (IL-12) Imbalance and T Lymphocyte Polarization in HIV Infection</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>INTESTIPAX</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
+          <t>Phase III Open-label Randomized Multicenter Trial to Assess the Non-inferiority of Raltegravir Compared With EFavirenz, Both in Combination With LAmivudine and TEnofovir, in ART-naïve HIV-1-infected Patients Receiving Rifampin for Active TuBerculosis</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>REFLATE TB2</t>
+        </is>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT01895920</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT02212379</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>TRANSBioHIV</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
+          <t>Dual Therapy Combining Raltegravir With Etravirine Maintains a High Level of Viral Suppression Over 96 Weeks in Long-term Experienced HIV-infected Individuals Over 45 Years on a PI-based Regimen: Results From the Phase II ANRS 163 ETRAL Study</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3557,32 +3992,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT02906137</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT02738502</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Altered Homing of T Lymphocytes to the Gut and Poor Immune Reconstitution of the Intestinal Mucosa in Treated HIV-infected Individuals</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>GALT</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
+          <t>An Open-label Phase II Pilot Study of Prevention of Perinatal Transmission of HIV-1 Without Nucleoside Reverse Transcriptase Inhibitors</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>MONOGEST</t>
+        </is>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3594,32 +4034,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT02738502</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NCT02906137</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>An Open-label Phase II Pilot Study of Prevention of Perinatal Transmission of HIV-1 Without Nucleoside Reverse Transcriptase Inhibitors</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MONOGEST</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
+          <t>Altered Homing of T Lymphocytes to the Gut and Poor Immune Reconstitution of the Intestinal Mucosa in Treated HIV-infected Individuals</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>GALT</t>
+        </is>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3631,103 +4076,118 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>NCT02987530</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Phase III Multicenter Randomized Trial Evaluating in Patients At the Time of the Primary HIV-1 Infection, the Impact on the Viral Reservoir of a Combination Including Tenofovir/emtricitabine and Dolutegravir or Tenofovir/emtricitabine and Darunavir/cobicistat</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>OPTIPRIM-2</t>
         </is>
       </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NCT03671291</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NCT04008927</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>National Survey on Missed Opportunities to Pre-exposure Prophylaxis for Prevention of Human Immunodeficiency Virus-infection.</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="b">
-        <v>0</v>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Towards Ending HCV Infection Among Active Drug Users: a Community-based Intervention in Montpellier.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>ICONE</t>
+        </is>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NCT04008927</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NCT03671291</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Towards Ending HCV Infection Among Active Drug Users: a Community-based Intervention in Montpellier.</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ICONE</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
+          <t>National Survey on Missed Opportunities to Pre-exposure Prophylaxis for Prevention of Human Immunodeficiency Virus-infection.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3738,32 +4198,37 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>NCT02287961</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>Natural History of Anal Human Papillomavirus Infection and Associated Disease in HIV-infected Men Who Have Sex With Men: Towards an Evidence Base for the Prevention of Anal Cancer.</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>APACHES</t>
         </is>
       </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3775,32 +4240,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>NCT05311865</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>Transmission of Covid-19 During Clubbing Events in Closed Places</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>ITOC</t>
         </is>
       </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3812,32 +4282,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NCT04133012</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NCT04824638</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>A Prospective Study Aiming to Determine the Cartography of Virological Reservoir Related to Antiretroviral Concentrations in Chronic HIV-1 Patients Treated with a First Line of Dolutegravir and Associated Nucleoside / Nucleotide Reverse Transcriptase Inhibitors (NRTIs).</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>DOLUVOIR</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
+          <t>A Phase II Trial Assessing Immunogenicity and Safety of COVID-19 mRNA Vaccine BNT162b2 in Adult Volunteers With no History of SARS-CoV-2 Infection Administered With Two Doses of Vaccine (D1-D29) and in Adult Volunteers With Documented History of SARS-CoV-2 Infection (of More Than 5 Months) Administered With Only One Dose of Vaccine</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>CoviCompareP</t>
+        </is>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3849,32 +4324,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NCT04824638</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NCT04133012</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>A Phase II Trial Assessing Immunogenicity and Safety of COVID-19 mRNA Vaccine BNT162b2 in Adult Volunteers With no History of SARS-CoV-2 Infection Administered With Two Doses of Vaccine (D1-D29) and in Adult Volunteers With Documented History of SARS-CoV-2 Infection (of More Than 5 Months) Administered With Only One Dose of Vaccine</t>
-        </is>
-      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>CoviCompareP</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
+          <t>A Prospective Study Aiming to Determine the Cartography of Virological Reservoir Related to Antiretroviral Concentrations in Chronic HIV-1 Patients Treated with a First Line of Dolutegravir and Associated Nucleoside / Nucleotide Reverse Transcriptase Inhibitors (NRTIs).</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>DOLUVOIR</t>
+        </is>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
       <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3886,32 +4366,37 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>NCT04120415</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>2019-002818-40</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>EHVA T02 (European HIV Vaccine Alliance Therapeutic Trial 02)/ANRS VRI07: A Phase II Randomised, Placebo-controlled Trial of Vedolizumab With or Without Therapeutic HIV MVA Vaccine in Individuals Who Started Antiretrovirals During Primary or Chronic Infection</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3923,28 +4408,33 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>NCT04842682</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>A Phase I Multicenter Double-blind Placebo Controlled Dose Escalation Trial of an Adjuvanted Anti-CD40 mAb Fused to Env GP140 HIV Clade C ZM-96 (CD40.HIVRI.Env) Vaccine Combined or Not With a DNA-HIV-PT123 HIV-1 Vaccine in Healthy Participants</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="b">
         <v>0</v>
       </c>
       <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3956,32 +4446,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>NCT04597424</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex With Men and Using Oral Tenofovir Disoproxil Fumarate/ Emtricitabine (TDF/FTC) for HIV Pre-Exposure Prophylaxis (PrEP)</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>DOXYVAC</t>
         </is>
       </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3991,30 +4486,35 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
         <is>
           <t>2006-003940-50</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
         <is>
           <t>ESSAI RANDOMISE MULTICENTRIQUE DE PHASE III COMPARANT L’IMMUNOGENICITE ET LA TOLERANCE DE TROIS SCHEMAS DE VACCINATION CONTRE LE VIRUS DE L’HEPATITE B CHEZ DES PATIENTS INFECTES PAR LE VIH AYANT DES LYMPHOCYTES T CD4 SUPERIEURS A 200/mm3</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>VIHVAC-B</t>
         </is>
       </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
       <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4024,100 +4524,115 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2021-000509-26</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>A phase II trial assessing immunogenicity and safety of COVID-19 mRNA Vaccine BNT162b2 in adult volunteers with no history of SARS CoV-2 infection administered with two doses of vaccine (D1-D29) and in adult volunteers with documented history of SARS CoV-2 infection (of more than 6 months) administered with only one dose of vaccine 
+ Essai de phase II évaluant l'immunogénicité et la sécurité du vaccin à ARNm COVID-19 BNT162b2 chez des participants adultes sans antécédents d'infection par le SARS CoV-2, administrés avec deux doses de vaccin (J1-J29) et chez des participants adultes ayant des antécédents documentés d'infection par le SRAS CoV-2 (de plus de 6 mois), administrés avec une seule dose de vaccin.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2017-000040-17</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Randomized, open-label and multicentric trial evaluating the non-inferiority of antiretroviral treatment taken 4 consecutive days per week versus continuous therapy 7/7 days per week in HIV-1 infected patients with controlled viral load under antiretroviral therapy 
+ Essai multicentrique, en ouvert, randomisé en 2 groupes parallèles, évaluant la non-infériorité d’un traitement de maintenance à 4 jours consécutifs sur 7 versus la poursuite du traitement antirétroviral en continu, chez des patients en succès thérapeutique sous ARV.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>QUATUOR 
+ QUATUOR</t>
+        </is>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
         <is>
           <t>2019-002829-29</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
         <is>
           <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex with Men using oral TDF/FTC for HIV Pre-Exposure Prophylaxis (PrEP) 
  Prévention combinée des infections sexuellement transmissibles (IST) chez les hommes ayant des rapports sexuels avec des hommes utilisant le TDF/FTC par voie orale pour la prophylaxie préexposition au VIH (PrEP)</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Doxyvac</t>
         </is>
       </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2017-000040-17</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Randomized, open-label and multicentric trial evaluating the non-inferiority of antiretroviral treatment taken 4 consecutive days per week versus continuous therapy 7/7 days per week in HIV-1 infected patients with controlled viral load under antiretroviral therapy 
- Essai multicentrique, en ouvert, randomisé en 2 groupes parallèles, évaluant la non-infériorité d’un traitement de maintenance à 4 jours consécutifs sur 7 versus la poursuite du traitement antirétroviral en continu, chez des patients en succès thérapeutique sous ARV.</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>QUATUOR 
- QUATUOR</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102" t="b">
-        <v>0</v>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>2021-000509-26</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>A phase II trial assessing immunogenicity and safety of COVID-19 mRNA Vaccine BNT162b2 in adult volunteers with no history of SARS CoV-2 infection administered with two doses of vaccine (D1-D29) and in adult volunteers with documented history of SARS CoV-2 infection (of more than 6 months) administered with only one dose of vaccine 
- Essai de phase II évaluant l'immunogénicité et la sécurité du vaccin à ARNm COVID-19 BNT162b2 chez des participants adultes sans antécédents d'infection par le SARS CoV-2, administrés avec deux doses de vaccin (J1-J29) et chez des participants adultes ayant des antécédents documentés d'infection par le SRAS CoV-2 (de plus de 6 mois), administrés avec une seule dose de vaccin.</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
-      </c>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
+++ b/publipostage/01kv58h76/liste_essais_cliniques_identifies_01kv58h76.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +656,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +699,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -712,6 +742,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -750,6 +785,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -788,6 +828,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -826,6 +871,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -864,6 +914,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -906,6 +961,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -948,6 +1008,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -986,6 +1051,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1028,6 +1098,7 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1070,6 +1141,7 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1108,6 +1180,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1146,6 +1223,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1188,6 +1270,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1230,6 +1317,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1272,6 +1364,7 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1310,6 +1403,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1348,6 +1446,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1390,6 +1493,7 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1432,6 +1536,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1470,6 +1579,11 @@
       <c r="J26" t="b">
         <v>1</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1508,6 +1622,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1550,6 +1669,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1592,6 +1716,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1630,6 +1759,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1676,6 +1810,11 @@
       <c r="J31" t="b">
         <v>1</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1714,6 +1853,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1756,6 +1900,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1798,6 +1947,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1840,6 +1994,7 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1882,6 +2037,7 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1920,6 +2076,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1958,6 +2119,11 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2000,6 +2166,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2038,6 +2209,11 @@
       <c r="J40" t="b">
         <v>1</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2080,6 +2256,11 @@
       <c r="J41" t="b">
         <v>1</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2122,6 +2303,11 @@
       <c r="J42" t="b">
         <v>1</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2164,6 +2350,7 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2206,6 +2393,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2248,6 +2440,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2290,6 +2487,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2332,6 +2534,11 @@
       <c r="J47" t="b">
         <v>1</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2374,6 +2581,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2412,6 +2624,11 @@
       <c r="J49" t="b">
         <v>1</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2454,6 +2671,11 @@
       <c r="J50" t="b">
         <v>1</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2496,6 +2718,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2538,6 +2765,11 @@
       <c r="J52" t="b">
         <v>1</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2580,6 +2812,7 @@
       <c r="J53" t="b">
         <v>1</v>
       </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2622,6 +2855,11 @@
       <c r="J54" t="b">
         <v>1</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2660,6 +2898,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2702,6 +2945,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2744,6 +2992,7 @@
       <c r="J57" t="b">
         <v>1</v>
       </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2782,6 +3031,7 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2824,6 +3074,11 @@
       <c r="J59" t="b">
         <v>1</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2866,6 +3121,11 @@
       <c r="J60" t="b">
         <v>1</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2908,6 +3168,11 @@
       <c r="J61" t="b">
         <v>1</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2950,6 +3215,11 @@
       <c r="J62" t="b">
         <v>1</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2992,6 +3262,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3034,6 +3309,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3076,6 +3356,11 @@
       <c r="J65" t="b">
         <v>1</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3114,6 +3399,11 @@
       <c r="J66" t="b">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3152,6 +3442,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3194,6 +3489,11 @@
       <c r="J68" t="b">
         <v>1</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3236,6 +3536,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3278,6 +3583,11 @@
       <c r="J70" t="b">
         <v>1</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3320,6 +3630,11 @@
       <c r="J71" t="b">
         <v>1</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3362,6 +3677,11 @@
       <c r="J72" t="b">
         <v>1</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3404,6 +3724,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3446,6 +3771,11 @@
       <c r="J74" t="b">
         <v>1</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3488,6 +3818,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3530,6 +3865,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3568,6 +3908,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3614,6 +3959,11 @@
       <c r="J78" t="b">
         <v>1</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3652,6 +4002,11 @@
       <c r="J79" t="b">
         <v>1</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3694,6 +4049,11 @@
       <c r="J80" t="b">
         <v>1</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3735,6 +4095,11 @@
       </c>
       <c r="J81" t="b">
         <v>1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3781,6 +4146,7 @@
       <c r="J82" t="b">
         <v>1</v>
       </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3823,6 +4189,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3861,6 +4232,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3903,6 +4279,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3945,6 +4326,11 @@
       <c r="J86" t="b">
         <v>1</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3983,6 +4369,11 @@
       <c r="J87" t="b">
         <v>1</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4025,6 +4416,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4067,6 +4463,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4109,6 +4510,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4151,6 +4557,11 @@
       <c r="J91" t="b">
         <v>1</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4189,6 +4600,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4231,6 +4647,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4273,6 +4694,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4315,6 +4741,11 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4357,6 +4788,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4399,6 +4835,11 @@
       <c r="J97" t="b">
         <v>1</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4437,6 +4878,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4479,6 +4925,11 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4517,6 +4968,7 @@
       <c r="J100" t="b">
         <v>1</v>
       </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4556,6 +5008,7 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4596,6 +5049,7 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4635,6 +5089,7 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
